--- a/tileTemplate.xlsx
+++ b/tileTemplate.xlsx
@@ -5,18 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy Jones\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neumont\RichAnimation\RichAnimationFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="BoardGraphics" sheetId="6" r:id="rId1"/>
+    <sheet name="BoardContents" sheetId="3" r:id="rId2"/>
+    <sheet name="BoardTriggers" sheetId="4" r:id="rId3"/>
+    <sheet name="BoardEnums" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="TileTypes">Sheet2!$A$1:$A$4</definedName>
+    <definedName name="contentEnums">BoardEnums!$B$2:$B$35</definedName>
+    <definedName name="graphicEnums">BoardEnums!$A$2:$A$36</definedName>
+    <definedName name="triggerEnums">BoardEnums!$C$2:$C$29</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>forestGrass</t>
   </si>
@@ -40,6 +44,30 @@
   </si>
   <si>
     <t>forestDirt</t>
+  </si>
+  <si>
+    <t>Graphic Enums</t>
+  </si>
+  <si>
+    <t>Content Enums</t>
+  </si>
+  <si>
+    <t>Trigger Enums</t>
+  </si>
+  <si>
+    <t>healthPotion</t>
+  </si>
+  <si>
+    <t>comfortSheep</t>
+  </si>
+  <si>
+    <t>bearTrap</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>jjss</t>
   </si>
 </sst>
 </file>
@@ -90,10 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +401,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -403,10 +427,8 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -423,10 +445,8 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -443,10 +463,8 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -463,10 +481,8 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -483,10 +499,8 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -503,10 +517,8 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -523,10 +535,8 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -543,10 +553,8 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -563,10 +571,8 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -583,10 +589,8 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -603,13 +607,11 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:Q11">
-      <formula1>TileTypes</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:P11">
+      <formula1>graphicEnums</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -618,34 +620,503 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:A4"/>
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:P11">
+      <formula1>contentEnums</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:P11">
+      <formula1>triggerEnums</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>

--- a/tileTemplate.xlsx
+++ b/tileTemplate.xlsx
@@ -12,15 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BoardGraphics" sheetId="6" r:id="rId1"/>
-    <sheet name="BoardContents" sheetId="3" r:id="rId2"/>
-    <sheet name="BoardTriggers" sheetId="4" r:id="rId3"/>
+    <sheet name="TileGraphics" sheetId="6" r:id="rId1"/>
+    <sheet name="BoardTriggers" sheetId="4" r:id="rId2"/>
+    <sheet name="TileContents" sheetId="3" r:id="rId3"/>
     <sheet name="BoardEnums" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="contentEnums">BoardEnums!$B$2:$B$35</definedName>
     <definedName name="graphicEnums">BoardEnums!$A$2:$A$36</definedName>
-    <definedName name="triggerEnums">BoardEnums!$C$2:$C$29</definedName>
+    <definedName name="triggerEnums">BoardEnums!$C$2:$C$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>forestGrass</t>
   </si>
@@ -61,26 +61,199 @@
     <t>comfortSheep</t>
   </si>
   <si>
-    <t>bearTrap</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
-    <t>jjss</t>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>separate with |</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>DOWN</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>UP_LEFT</t>
+  </si>
+  <si>
+    <t>UP_RIGHT</t>
+  </si>
+  <si>
+    <t>RIGHT_LEFT</t>
+  </si>
+  <si>
+    <t>UP_DOWN</t>
+  </si>
+  <si>
+    <t>RIGHT_DOWN-RIGHT_DOWN</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>RIGHT_DOWN</t>
+  </si>
+  <si>
+    <t>UP-RIGHT</t>
+  </si>
+  <si>
+    <t>DOWN-RIGHT</t>
+  </si>
+  <si>
+    <t>DOWN-LEFT</t>
+  </si>
+  <si>
+    <t>UP-LEFT</t>
+  </si>
+  <si>
+    <t>DOWN_LEFT</t>
+  </si>
+  <si>
+    <t>RIGHT_DOWN_LEFT</t>
+  </si>
+  <si>
+    <t>UP_LEFT_UP-LEFT</t>
+  </si>
+  <si>
+    <t>DOWN_DOWN-LEFT_LEFT</t>
+  </si>
+  <si>
+    <t>UP_DOWN_LEFT</t>
+  </si>
+  <si>
+    <t>UP_RIGHT_DOWN</t>
+  </si>
+  <si>
+    <t>UP_RIGHT_LEFT</t>
+  </si>
+  <si>
+    <t>UP_DOWN_DOWN-LEFT_LEFT_UP-LEFT</t>
+  </si>
+  <si>
+    <t>UP_UP-RIGHT_RIGHT</t>
+  </si>
+  <si>
+    <t>UP_UP-RIGHT_RIGHT_LEFT_UP-LEFT</t>
+  </si>
+  <si>
+    <t>Frame Direction Priority Order</t>
+  </si>
+  <si>
+    <t>(Number of directions)</t>
+  </si>
+  <si>
+    <t>UP_RIGHT_DOWN_LEFT</t>
+  </si>
+  <si>
+    <t>RIGHT_DOWN-RIGHT_DOWN_DOWN-LEFT_LEFT</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>UP_UP-RIGHT_RIGHT_DOWN-RIGHT_DOWN</t>
+  </si>
+  <si>
+    <t>RIGHT_DOWN_DOWN-LEFT_LEFT</t>
+  </si>
+  <si>
+    <t>RIGHT_DOWN-RIGHT_DOWN_LEFT</t>
+  </si>
+  <si>
+    <t>UP_DOWN_LEFT_UP-LEFT</t>
+  </si>
+  <si>
+    <t>UP_DOWN_DOWN-LEFT_LEFT</t>
+  </si>
+  <si>
+    <t>UP_RIGHT_LEFT_UP-LEFT</t>
+  </si>
+  <si>
+    <t>UP_RIGHT_DOWN_LEFT_UP-LEFT</t>
+  </si>
+  <si>
+    <t>UP_RIGHT_DOWN_DOWN-LEFT_LEFT</t>
+  </si>
+  <si>
+    <t>UP_RIGHT_DOWN_DOWN-LEFT_LEFT_UP-LEFT</t>
+  </si>
+  <si>
+    <t>UP_RIGHT_DOWN-RIGHT_DOWN</t>
+  </si>
+  <si>
+    <t>UP_RIGHT_DOWN-RIGHT_DOWN_LEFT</t>
+  </si>
+  <si>
+    <t>UP_RIGHT_DOWN-RIGHT_DOWN_LEFT_UP-LEFT</t>
+  </si>
+  <si>
+    <t>UP_RIGHT_DOWN-RIGHT_DOWN_DOWN-LEFT_LEFT</t>
+  </si>
+  <si>
+    <t>UP_RIGHT_DOWN-RIGHT_DOWN_DOWN-LEFT_LEFT_UP-LEFT</t>
+  </si>
+  <si>
+    <t>UP_UP-RIGHT_RIGHT_LEFT</t>
+  </si>
+  <si>
+    <t>UP_UP-RIGHT_RIGHT_DOWN</t>
+  </si>
+  <si>
+    <t>UP_UP-RIGHT_RIGHT_DOWN_LEFT</t>
+  </si>
+  <si>
+    <t>UP_UP-RIGHT_RIGHT_DOWN_LEFT_UP-LEFT</t>
+  </si>
+  <si>
+    <t>UP_UP-RIGHT_RIGHT_DOWN_DOWN-LEFT_LEFT</t>
+  </si>
+  <si>
+    <t>UP_UP-RIGHT_RIGHT_DOWN_DOWN-LEFT_LEFT_UP-LEFT</t>
+  </si>
+  <si>
+    <t>UP_UP-RIGHT_RIGHT_DOWN-RIGHT_DOWN_LEFT</t>
+  </si>
+  <si>
+    <t>UP_UP-RIGHT_RIGHT_DOWN-RIGHT_DOWN_LEFT_UP-LEFT</t>
+  </si>
+  <si>
+    <t>UP_UP-RIGHT_RIGHT_DOWN-RIGHT_DOWN_DOWN-LEFT_LEFT</t>
+  </si>
+  <si>
+    <t>Frame Index Enums (TileFrameIndices)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,9 +291,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,9 +799,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:P11">
+      <formula1>triggerEnums</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -839,242 +1230,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:P11">
-      <formula1>triggerEnums</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C24"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1084,8 +1260,15 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1093,10 +1276,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1104,23 +1293,299 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="D2:D48">
+    <sortCondition ref="D2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tileTemplate.xlsx
+++ b/tileTemplate.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TileGraphics" sheetId="6" r:id="rId1"/>
-    <sheet name="BoardTriggers" sheetId="4" r:id="rId2"/>
+    <sheet name="TileTriggers" sheetId="4" r:id="rId2"/>
     <sheet name="TileContents" sheetId="3" r:id="rId3"/>
     <sheet name="BoardEnums" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="contentEnums">BoardEnums!$B$2:$B$35</definedName>
-    <definedName name="graphicEnums">BoardEnums!$A$2:$A$36</definedName>
+    <definedName name="contentEnums">BoardEnums!$B$2:$B$5</definedName>
+    <definedName name="frameIndexEnums">BoardEnums!$D$2:$D$48</definedName>
+    <definedName name="graphicEnums">BoardEnums!$A$2:$A$5</definedName>
     <definedName name="triggerEnums">BoardEnums!$C$2:$C$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -580,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -799,7 +800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1235,7 +1238,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,10 +1273,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1287,10 +1290,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1322,7 +1325,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1582,8 +1585,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="D2:D48">
-    <sortCondition ref="D2"/>
+  <sortState ref="B2:B3">
+    <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/tileTemplate.xlsx
+++ b/tileTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="TileGraphics" sheetId="6" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="BoardEnums" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="contentEnums">BoardEnums!$B$2:$B$5</definedName>
+    <definedName name="contentEnums">BoardEnums!$B$2:$B$11</definedName>
     <definedName name="frameIndexEnums">BoardEnums!$D$2:$D$48</definedName>
-    <definedName name="graphicEnums">BoardEnums!$A$2:$A$5</definedName>
-    <definedName name="triggerEnums">BoardEnums!$C$2:$C$4</definedName>
+    <definedName name="graphicEnums">BoardEnums!$A$2:$A$10</definedName>
+    <definedName name="triggerEnums">BoardEnums!$C$2:$C$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,19 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
-  <si>
-    <t>forestGrass</t>
-  </si>
-  <si>
-    <t>forestTree</t>
-  </si>
-  <si>
-    <t>forestGroundPebble</t>
-  </si>
-  <si>
-    <t>forestDirt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>Graphic Enums</t>
   </si>
@@ -237,6 +225,36 @@
   </si>
   <si>
     <t>Frame Index Enums (TileFrameIndices)</t>
+  </si>
+  <si>
+    <t>forest_Dirt</t>
+  </si>
+  <si>
+    <t>forest_GrassPath</t>
+  </si>
+  <si>
+    <t>forest_DirtPath</t>
+  </si>
+  <si>
+    <t>forest_DirtTree</t>
+  </si>
+  <si>
+    <t>forest_GrassTree</t>
+  </si>
+  <si>
+    <t>forest_Grass</t>
+  </si>
+  <si>
+    <t>forest_DirtyGrass</t>
+  </si>
+  <si>
+    <t>permanent</t>
+  </si>
+  <si>
+    <t>forest_DungeonEntrance</t>
+  </si>
+  <si>
+    <t>forest_PlayerStart</t>
   </si>
 </sst>
 </file>
@@ -581,11 +599,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="16" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -800,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="A1:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,11 +1038,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="A1:P11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1238,12 +1261,12 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
@@ -1255,333 +1278,351 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
       <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
       <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
         <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="4:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/tileTemplate.xlsx
+++ b/tileTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TileGraphics" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="contentEnums">BoardEnums!$B$2:$B$11</definedName>
     <definedName name="frameIndexEnums">BoardEnums!$D$2:$D$48</definedName>
     <definedName name="graphicEnums">BoardEnums!$A$2:$A$10</definedName>
-    <definedName name="triggerEnums">BoardEnums!$C$2:$C$5</definedName>
+    <definedName name="triggerEnums">BoardEnums!$C$2:$C$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>Graphic Enums</t>
   </si>
@@ -251,10 +251,13 @@
     <t>permanent</t>
   </si>
   <si>
-    <t>forest_DungeonEntrance</t>
-  </si>
-  <si>
     <t>forest_PlayerStart</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>forest_Exit</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1260,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1357,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -1368,6 +1371,9 @@
       <c r="A6" t="s">
         <v>68</v>
       </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
@@ -1401,7 +1407,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1413,7 +1419,7 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>

--- a/tileTemplate.xlsx
+++ b/tileTemplate.xlsx
@@ -9,16 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="TileGraphics" sheetId="6" r:id="rId1"/>
     <sheet name="TileTriggers" sheetId="4" r:id="rId2"/>
     <sheet name="TileContents" sheetId="3" r:id="rId3"/>
-    <sheet name="BoardEnums" sheetId="2" r:id="rId4"/>
+    <sheet name="TileEntity" sheetId="7" r:id="rId4"/>
+    <sheet name="BoardEnums" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="contentEnums">BoardEnums!$B$2:$B$11</definedName>
+    <definedName name="entityEnums">BoardEnums!$E$2:$E$5</definedName>
     <definedName name="frameIndexEnums">BoardEnums!$D$2:$D$48</definedName>
     <definedName name="graphicEnums">BoardEnums!$A$2:$A$10</definedName>
     <definedName name="triggerEnums">BoardEnums!$C$2:$C$6</definedName>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>Graphic Enums</t>
   </si>
@@ -258,6 +260,15 @@
   </si>
   <si>
     <t>forest_Exit</t>
+  </si>
+  <si>
+    <t>Entity Enums</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>wisp</t>
   </si>
 </sst>
 </file>
@@ -602,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,10 +1272,228 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:P11">
+      <formula1>entityEnums</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,6 +1502,7 @@
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
@@ -1292,10 +1522,12 @@
       <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1310,7 +1542,10 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1327,7 +1562,10 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1344,10 +1582,12 @@
       <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1362,10 +1602,9 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1377,10 +1616,9 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1389,7 +1627,7 @@
       <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1400,10 +1638,9 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1412,10 +1649,9 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1424,10 +1660,9 @@
       <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" t="s">

--- a/tileTemplate.xlsx
+++ b/tileTemplate.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TileGraphics" sheetId="6" r:id="rId1"/>
     <sheet name="TileTriggers" sheetId="4" r:id="rId2"/>
     <sheet name="TileContents" sheetId="3" r:id="rId3"/>
-    <sheet name="TileEntity" sheetId="7" r:id="rId4"/>
+    <sheet name="TileEntities" sheetId="7" r:id="rId4"/>
     <sheet name="BoardEnums" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>Graphic Enums</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>permanent</t>
-  </si>
-  <si>
-    <t>forest_PlayerStart</t>
   </si>
   <si>
     <t>hidden</t>
@@ -613,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -1274,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,7 +1490,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,7 +1520,7 @@
         <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
         <v>35</v>
@@ -1543,7 +1540,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
         <v>36</v>
@@ -1563,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -1597,7 +1594,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -1644,7 +1641,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1654,9 +1651,6 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
       <c r="D10" t="s">
         <v>41</v>
       </c>

--- a/tileTemplate.xlsx
+++ b/tileTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TileGraphics" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>Graphic Enums</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>wisp</t>
+  </si>
+  <si>
+    <t>bones</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
@@ -1489,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1574,7 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
@@ -1591,7 +1594,7 @@
         <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -1606,6 +1609,9 @@
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
